--- a/medicine/Hématologie/Classe_ATC_B06/Classe_ATC_B06.xlsx
+++ b/medicine/Hématologie/Classe_ATC_B06/Classe_ATC_B06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC B06, dénommée « Autres médicaments utilisés en hématologie », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB06[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC B06, dénommée « Autres médicaments utilisés en hématologie », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB06. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
 </t>
         </is>
       </c>
@@ -513,17 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B06AA Enzymes
-B06AA02 Fibrinolysine (en) et désoxyribonucléase
+          <t>B06AA Enzymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B06AA02 Fibrinolysine (en) et désoxyribonucléase
 B06AA03 Hyaluronidase
 B06AA04 Chymotrypsine
 B06AA07 Trypsine
 B06AA10 Désoxyribonucléase
-B06AA55 Streptokinase en association
-B06AB Autres médicaments dérivés de l'hème
-B06AB01 Hématine
-B06AC Autres médicaments utilisés dans l'angio-œdème héréditaire
-B06AC01 Inhibiteurs C1, dérivés du plasma
+B06AA55 Streptokinase en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B06A Autres médicaments utilisés en hématologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B06AB Autres médicaments dérivés de l'hème</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B06AB01 Hématine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B06A Autres médicaments utilisés en hématologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B06AC Autres médicaments utilisés dans l'angio-œdème héréditaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B06AC01 Inhibiteurs C1, dérivés du plasma
 B06AC02 Icatibant
 B06AC03 Écallantide (en)
 B06AC04 Conestat alfa</t>
